--- a/计算器.xlsx
+++ b/计算器.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E20F8F8-801D-4530-AA45-AF2152D3A4D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E7B81-FC61-48EC-850E-D26F93579364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="定投计算器" sheetId="2" r:id="rId1"/>
     <sheet name="本金翻倍时间" sheetId="1" r:id="rId2"/>
+    <sheet name="判断项目是否可行" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>一次性投入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +121,70 @@
   </si>
   <si>
     <t>预设目标求本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净现金流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折现率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.《折现率》指定折现率/预期收益。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已知折现率求财务净现值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.《累计现值》 &lt; 0 说明截至该年，尚未到达预期收益。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.《累计现值》 &gt; 0 说明截至该年，已到达预期收益；该年后，若能继续获得正向现金流，则收益将高于给定的《折现率》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.当财务净现值等于 0 时的折现率为内部收益率。内部收益率体现了投资该项目可以获得的预期收益。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待回收资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每期回收资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每期回收本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每期回收利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等额序列资金回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收周期数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,10 +195,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +217,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -313,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -369,16 +450,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -390,10 +471,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -408,10 +489,10 @@
     <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,10 +504,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -435,22 +516,22 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -459,7 +540,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -471,10 +552,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -489,25 +570,95 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -792,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA59AA7D-2CEF-4BE3-920E-568743ADE4BA}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -884,16 +1035,16 @@
       <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
@@ -1128,16 +1279,16 @@
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="44" t="s">
@@ -1388,7 +1539,7 @@
       <c r="B42" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="grnJSUqc0/O+V7VxOlUs+bw6o3A9h5zN7uMnmNhltggP9nWsnSqODeuPbk3ja20Fkq0mkGpHut1FoHB2d+xGyg==" saltValue="3PTvSB73V59vLzEexmdojQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7mJ5IkgfLghD5feASPxHqn7Cwl2lSl3B6dNdBYs52rBqZ3P/+zp+lhIjknrSFM3zw57vtMNtsYNO5/YHy8yH9g==" saltValue="88DfitiUqJ17M4Zmj+Hz6w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A1:B1048576 D1:D1048576" name="ABD"/>
   </protectedRanges>
@@ -1398,6 +1549,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1405,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1486,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <f t="shared" ref="B5:B34" si="0">A5/100+1</f>
+        <f t="shared" ref="B5:B35" si="0">A5/100+1</f>
         <v>1.01</v>
       </c>
       <c r="C5" s="5">
@@ -1494,7 +1646,7 @@
         <v>69.660716893574829</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D34" si="1">C5*A5</f>
+        <f t="shared" ref="D5:D35" si="1">C5*A5</f>
         <v>69.660716893574829</v>
       </c>
       <c r="E5" s="4"/>
@@ -1502,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:G34" si="2">F5/100+1</f>
+        <f t="shared" ref="G5:G35" si="2">F5/100+1</f>
         <v>1.01</v>
       </c>
       <c r="H5" s="6">
@@ -1525,7 +1677,7 @@
         <v>120</v>
       </c>
       <c r="N5" s="4">
-        <f>(H5^(M5+1)-H5)/(H5-1)</f>
+        <f t="shared" ref="N5:N35" si="3">(H5^(M5+1)-H5)/(H5-1)</f>
         <v>126.2255605149067</v>
       </c>
       <c r="O5" s="4">
@@ -1542,7 +1694,7 @@
         <v>1.02</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" ref="C6:C34" si="3">LN(2)/LN(B6)</f>
+        <f t="shared" ref="C6:C35" si="4">LN(2)/LN(B6)</f>
         <v>35.002788781146499</v>
       </c>
       <c r="D6" s="5">
@@ -1558,28 +1710,28 @@
         <v>1.02</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" ref="H6:H34" si="4">EXP(LN(G6)/12)</f>
+        <f t="shared" ref="H6:H35" si="5">EXP(LN(G6)/12)</f>
         <v>1.0016515813019202</v>
       </c>
       <c r="I6" s="4">
         <v>761</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6:J34" si="5">I6/12</f>
+        <f t="shared" ref="J6:J34" si="6">I6/12</f>
         <v>63.416666666666664</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" ref="K6:K34" si="6">J6*F6</f>
+        <f t="shared" ref="K6:K34" si="7">J6*F6</f>
         <v>126.83333333333333</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4">
-        <f>(H6^(M6+1)-H6)/(H6-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" ref="O6:O34" si="7">M6*2</f>
+        <f t="shared" ref="O6:O34" si="8">M6*2</f>
         <v>0</v>
       </c>
     </row>
@@ -1592,7 +1744,7 @@
         <v>1.03</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.449772250437736</v>
       </c>
       <c r="D7" s="5">
@@ -1608,28 +1760,28 @@
         <v>1.03</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0024662697723037</v>
       </c>
       <c r="I7" s="4">
         <v>510</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.5</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>127.5</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4">
-        <f>(H7^(M7+1)-H7)/(H7-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1642,7 +1794,7 @@
         <v>1.04</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.672987685129698</v>
       </c>
       <c r="D8" s="5">
@@ -1658,28 +1810,28 @@
         <v>1.04</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0032737397821989</v>
       </c>
       <c r="I8" s="4">
         <v>384</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4">
-        <f>(H8^(M8+1)-H8)/(H8-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1692,7 +1844,7 @@
         <v>1.05</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.206699082890461</v>
       </c>
       <c r="D9" s="5">
@@ -1708,18 +1860,18 @@
         <v>1.05</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0040741237836484</v>
       </c>
       <c r="I9" s="4">
         <v>309</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.75</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128.75</v>
       </c>
       <c r="L9" s="5"/>
@@ -1727,11 +1879,11 @@
         <v>144</v>
       </c>
       <c r="N9" s="4">
-        <f>(H9^(M9+1)-H9)/(H9-1)</f>
+        <f t="shared" si="3"/>
         <v>196.14002559656615</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>288</v>
       </c>
     </row>
@@ -1744,7 +1896,7 @@
         <v>1.06</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.895661045941875</v>
       </c>
       <c r="D10" s="5">
@@ -1760,28 +1912,28 @@
         <v>1.06</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.004867550565343</v>
       </c>
       <c r="I10" s="4">
         <v>258</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.5</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>129</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4">
-        <f>(H10^(M10+1)-H10)/(H10-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1794,7 +1946,7 @@
         <v>1.07</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.244768351058712</v>
       </c>
       <c r="D11" s="5">
@@ -1810,28 +1962,28 @@
         <v>1.07</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0056541453874053</v>
       </c>
       <c r="I11" s="4">
         <v>222</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.5</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>129.5</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4">
-        <f>(H11^(M11+1)-H11)/(H11-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1844,7 +1996,7 @@
         <v>1.08</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0064683420005878</v>
       </c>
       <c r="D12" s="5">
@@ -1860,28 +2012,28 @@
         <v>1.08</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0064340301100034</v>
       </c>
       <c r="I12" s="4">
         <v>195</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.25</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4">
-        <f>(H12^(M12+1)-H12)/(H12-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1894,7 +2046,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0432317269320457</v>
       </c>
       <c r="D13" s="5">
@@ -1910,28 +2062,28 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0072073233161367</v>
       </c>
       <c r="I13" s="4">
         <v>175</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.583333333333334</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>131.25</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4">
-        <f>(H13^(M13+1)-H13)/(H13-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1944,7 +2096,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.2725408973417132</v>
       </c>
       <c r="D14" s="7">
@@ -1960,18 +2112,18 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0079741404289038</v>
       </c>
       <c r="I14" s="6">
         <v>158</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.166666666666666</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>131.66666666666666</v>
       </c>
       <c r="L14" s="7"/>
@@ -1979,11 +2131,11 @@
         <v>12</v>
       </c>
       <c r="N14" s="4">
-        <f>(H14^(M14+1)-H14)/(H14-1)</f>
+        <f t="shared" si="3"/>
         <v>12.640536612263759</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
     </row>
@@ -1996,7 +2148,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6418846184179028</v>
       </c>
       <c r="D15" s="5">
@@ -2012,28 +2164,28 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0087345938235519</v>
       </c>
       <c r="I15" s="4">
         <v>144</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4">
-        <f>(H15^(M15+1)-H15)/(H15-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2046,7 +2198,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1162553741996994</v>
       </c>
       <c r="D16" s="5">
@@ -2062,28 +2214,28 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.009488792934583</v>
       </c>
       <c r="I16" s="4">
         <v>132</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4">
-        <f>(H16^(M16+1)-H16)/(H16-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2096,7 +2248,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6714171687799224</v>
       </c>
       <c r="D17" s="5">
@@ -2112,28 +2264,28 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0102368443581764</v>
       </c>
       <c r="I17" s="4">
         <v>123</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.25</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.25</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4">
-        <f>(H17^(M17+1)-H17)/(H17-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2146,7 +2298,7 @@
         <v>1.1400000000000001</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2900585555354711</v>
       </c>
       <c r="D18" s="5">
@@ -2162,28 +2314,28 @@
         <v>1.1400000000000001</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0109788519501735</v>
       </c>
       <c r="I18" s="4">
         <v>114</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4">
-        <f>(H18^(M18+1)-H18)/(H18-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2196,7 +2348,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9594844546403909</v>
       </c>
       <c r="D19" s="5">
@@ -2212,28 +2364,28 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0117149169198534</v>
       </c>
       <c r="I19" s="4">
         <v>107</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.9166666666666661</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.75</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4">
-        <f>(H19^(M19+1)-H19)/(H19-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2246,7 +2398,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6701735389888235</v>
       </c>
       <c r="D20" s="5">
@@ -2262,28 +2414,28 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0124451379197135</v>
       </c>
       <c r="I20" s="4">
         <v>101</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.4166666666666661</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134.66666666666666</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4">
-        <f>(H20^(M20+1)-H20)/(H20-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2296,7 +2448,7 @@
         <v>1.17</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.414844778007474</v>
       </c>
       <c r="D21" s="5">
@@ -2312,28 +2464,28 @@
         <v>1.17</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0131696111314623</v>
       </c>
       <c r="I21" s="4">
         <v>95</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.916666666666667</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>134.58333333333334</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4">
-        <f>(H21^(M21+1)-H21)/(H21-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2346,7 +2498,7 @@
         <v>1.18</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1878351335123218</v>
       </c>
       <c r="D22" s="5">
@@ -2362,28 +2514,28 @@
         <v>1.18</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0138884303484099</v>
       </c>
       <c r="I22" s="4">
         <v>91</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.583333333333333</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136.5</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4">
-        <f>(H22^(M22+1)-H22)/(H22-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2396,7 +2548,7 @@
         <v>1.19</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9846737726468469</v>
       </c>
       <c r="D23" s="5">
@@ -2412,28 +2564,28 @@
         <v>1.19</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0146016870544401</v>
       </c>
       <c r="I23" s="4">
         <v>86</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.166666666666667</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136.16666666666669</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4">
-        <f>(H23^(M23+1)-H23)/(H23-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2446,7 +2598,7 @@
         <v>1.2</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8017840169239308</v>
       </c>
       <c r="D24" s="5">
@@ -2462,28 +2614,28 @@
         <v>1.2</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0153094704997312</v>
       </c>
       <c r="I24" s="4">
         <v>82</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.833333333333333</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136.66666666666666</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4">
-        <f>(H24^(M24+1)-H24)/(H24-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2496,7 +2648,7 @@
         <v>1.21</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6362704486708597</v>
       </c>
       <c r="D25" s="5">
@@ -2512,28 +2664,28 @@
         <v>1.21</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0160118677733874</v>
       </c>
       <c r="I25" s="4">
         <v>78</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136.5</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4">
-        <f>(H25^(M25+1)-H25)/(H25-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2546,7 +2698,7 @@
         <v>1.22</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4857640793406852</v>
       </c>
       <c r="D26" s="5">
@@ -2562,28 +2714,28 @@
         <v>1.22</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0167089638731284</v>
       </c>
       <c r="I26" s="4">
         <v>75</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.25</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>137.5</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4">
-        <f>(H26^(M26+1)-H26)/(H26-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2596,7 +2748,7 @@
         <v>1.23</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3483079086876564</v>
       </c>
       <c r="D27" s="5">
@@ -2612,28 +2764,28 @@
         <v>1.23</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0174008417721816</v>
       </c>
       <c r="I27" s="4">
         <v>72</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4">
-        <f>(H27^(M27+1)-H27)/(H27-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2646,7 +2798,7 @@
         <v>1.24</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.222271094138538</v>
       </c>
       <c r="D28" s="5">
@@ -2662,28 +2814,28 @@
         <v>1.24</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0180875824835107</v>
       </c>
       <c r="I28" s="4">
         <v>69</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.75</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4">
-        <f>(H28^(M28+1)-H28)/(H28-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2696,7 +2848,7 @@
         <v>1.25</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1062837195053898</v>
       </c>
       <c r="D29" s="5">
@@ -2712,18 +2864,18 @@
         <v>1.25</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0187692651215061</v>
       </c>
       <c r="I29" s="4">
         <v>67</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.583333333333333</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>139.58333333333331</v>
       </c>
       <c r="L29" s="5"/>
@@ -2731,11 +2883,11 @@
         <v>67</v>
       </c>
       <c r="N29" s="4">
-        <f>(H29^(M29+1)-H29)/(H29-1)</f>
+        <f t="shared" si="3"/>
         <v>134.39428581228046</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>134</v>
       </c>
     </row>
@@ -2748,7 +2900,7 @@
         <v>1.26</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9991866170636823</v>
       </c>
       <c r="D30" s="5">
@@ -2764,28 +2916,28 @@
         <v>1.26</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0194459669612574</v>
       </c>
       <c r="I30" s="4">
         <v>65</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.416666666666667</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>140.83333333333334</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4">
-        <f>(H30^(M30+1)-H30)/(H30-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2798,7 +2950,7 @@
         <v>1.27</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8999923402717513</v>
       </c>
       <c r="D31" s="5">
@@ -2814,28 +2966,28 @@
         <v>1.27</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0201177634955232</v>
       </c>
       <c r="I31" s="4">
         <v>62</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.166666666666667</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>139.5</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4">
-        <f>(H31^(M31+1)-H31)/(H31-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2848,7 +3000,7 @@
         <v>1.28</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.807854499471603</v>
       </c>
       <c r="D32" s="5">
@@ -2864,28 +3016,28 @@
         <v>1.28</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0207847284895002</v>
       </c>
       <c r="I32" s="4">
         <v>60</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4">
-        <f>(H32^(M32+1)-H32)/(H32-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2898,7 +3050,7 @@
         <v>1.29</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7220434419207038</v>
       </c>
       <c r="D33" s="5">
@@ -2914,28 +3066,28 @@
         <v>1.29</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0214469340334986</v>
       </c>
       <c r="I33" s="4">
         <v>59</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.916666666666667</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>142.58333333333334</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4">
-        <f>(H33^(M33+1)-H33)/(H33-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2948,7 +3100,7 @@
         <v>1.3</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6419267958111403</v>
       </c>
       <c r="D34" s="5">
@@ -2964,33 +3116,36 @@
         <v>1.3</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0221044505936159</v>
       </c>
       <c r="I34" s="4">
         <v>57</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.75</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>142.5</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4">
-        <f>(H34^(M34+1)-H34)/(H34-1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
+      <c r="A35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="N35" s="4"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
@@ -3087,4 +3242,595 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAC89A5-C1CE-4E6A-827A-245A664C28A8}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.25" customWidth="1"/>
+    <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="81"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="82">
+        <v>15</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="73"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="72">
+        <v>0</v>
+      </c>
+      <c r="C9" s="72">
+        <v>1</v>
+      </c>
+      <c r="D9" s="72">
+        <v>2</v>
+      </c>
+      <c r="E9" s="72">
+        <v>3</v>
+      </c>
+      <c r="F9" s="72">
+        <v>4</v>
+      </c>
+      <c r="G9" s="72">
+        <v>5</v>
+      </c>
+      <c r="H9" s="72">
+        <v>6</v>
+      </c>
+      <c r="I9" s="72">
+        <v>7</v>
+      </c>
+      <c r="J9" s="72">
+        <v>8</v>
+      </c>
+      <c r="K9" s="72">
+        <v>9</v>
+      </c>
+      <c r="L9" s="72">
+        <v>10</v>
+      </c>
+      <c r="M9" s="72">
+        <v>11</v>
+      </c>
+      <c r="N9" s="73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="63">
+        <v>-500</v>
+      </c>
+      <c r="C10" s="63">
+        <v>140</v>
+      </c>
+      <c r="D10" s="63">
+        <v>140</v>
+      </c>
+      <c r="E10" s="63">
+        <v>140</v>
+      </c>
+      <c r="F10" s="63">
+        <v>140</v>
+      </c>
+      <c r="G10" s="63">
+        <v>140</v>
+      </c>
+      <c r="H10" s="63">
+        <v>140</v>
+      </c>
+      <c r="I10" s="63">
+        <v>140</v>
+      </c>
+      <c r="J10" s="63">
+        <v>140</v>
+      </c>
+      <c r="K10" s="63">
+        <v>140</v>
+      </c>
+      <c r="L10" s="63">
+        <v>140</v>
+      </c>
+      <c r="M10" s="63">
+        <v>140</v>
+      </c>
+      <c r="N10" s="83">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="75" t="str">
+        <f>"现值（折现率 = "&amp;B8&amp;"%)"</f>
+        <v>现值（折现率 = 15%)</v>
+      </c>
+      <c r="B11" s="70">
+        <f>B10/(1+$B$8/100)^B9</f>
+        <v>-500</v>
+      </c>
+      <c r="C11" s="70">
+        <f>C10/(1+$B$8/100)^C9</f>
+        <v>121.73913043478262</v>
+      </c>
+      <c r="D11" s="70">
+        <f>D10/(1+$B$8/100)^D9</f>
+        <v>105.86011342155011</v>
+      </c>
+      <c r="E11" s="70">
+        <f>E10/(1+$B$8/100)^E9</f>
+        <v>92.05227254047837</v>
+      </c>
+      <c r="F11" s="70">
+        <f>F10/(1+$B$8/100)^F9</f>
+        <v>80.045454383024676</v>
+      </c>
+      <c r="G11" s="70">
+        <f>G10/(1+$B$8/100)^G9</f>
+        <v>69.604742941760577</v>
+      </c>
+      <c r="H11" s="70">
+        <f t="shared" ref="H11:N11" si="0">H10/(1+$B$8/100)^H9</f>
+        <v>60.525863427617907</v>
+      </c>
+      <c r="I11" s="70">
+        <f t="shared" si="0"/>
+        <v>52.63118558923297</v>
+      </c>
+      <c r="J11" s="70">
+        <f t="shared" si="0"/>
+        <v>45.766248338463456</v>
+      </c>
+      <c r="K11" s="70">
+        <f t="shared" si="0"/>
+        <v>39.7967376856204</v>
+      </c>
+      <c r="L11" s="63"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="74">
+        <f t="shared" si="0"/>
+        <v>26.167001026133256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="76" t="str">
+        <f>"累计现值（折现率 = "&amp;B8&amp;"%)"</f>
+        <v>累计现值（折现率 = 15%)</v>
+      </c>
+      <c r="B12" s="77">
+        <f>B11</f>
+        <v>-500</v>
+      </c>
+      <c r="C12" s="77">
+        <f>B12+C11</f>
+        <v>-378.26086956521738</v>
+      </c>
+      <c r="D12" s="77">
+        <f t="shared" ref="D12:G12" si="1">C12+D11</f>
+        <v>-272.40075614366725</v>
+      </c>
+      <c r="E12" s="77">
+        <f t="shared" si="1"/>
+        <v>-180.34848360318887</v>
+      </c>
+      <c r="F12" s="77">
+        <f t="shared" si="1"/>
+        <v>-100.30302922016419</v>
+      </c>
+      <c r="G12" s="77">
+        <f t="shared" si="1"/>
+        <v>-30.698286278403614</v>
+      </c>
+      <c r="H12" s="77">
+        <f t="shared" ref="H12" si="2">G12+H11</f>
+        <v>29.827577149214292</v>
+      </c>
+      <c r="I12" s="77">
+        <f t="shared" ref="I12" si="3">H12+I11</f>
+        <v>82.458762738447263</v>
+      </c>
+      <c r="J12" s="77">
+        <f t="shared" ref="J12" si="4">I12+J11</f>
+        <v>128.22501107691073</v>
+      </c>
+      <c r="K12" s="77">
+        <f t="shared" ref="K12" si="5">J12+K11</f>
+        <v>168.02174876253113</v>
+      </c>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="78">
+        <f t="shared" ref="N12" si="6">K12+N11</f>
+        <v>194.18874978866438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="88"/>
+    </row>
+    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="41">
+        <v>10</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="89">
+        <v>11</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="84"/>
+    </row>
+    <row r="16" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="89">
+        <v>0</v>
+      </c>
+      <c r="C16" s="89">
+        <v>1</v>
+      </c>
+      <c r="D16" s="89">
+        <v>2</v>
+      </c>
+      <c r="E16" s="89">
+        <v>3</v>
+      </c>
+      <c r="F16" s="89">
+        <v>4</v>
+      </c>
+      <c r="G16" s="89">
+        <v>5</v>
+      </c>
+      <c r="H16" s="89">
+        <v>6</v>
+      </c>
+      <c r="I16" s="89">
+        <v>7</v>
+      </c>
+      <c r="J16" s="89">
+        <v>8</v>
+      </c>
+      <c r="K16" s="89">
+        <v>9</v>
+      </c>
+      <c r="L16" s="72">
+        <v>10</v>
+      </c>
+      <c r="M16" s="72">
+        <v>11</v>
+      </c>
+      <c r="N16" s="73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="41">
+        <v>30000</v>
+      </c>
+      <c r="C17" s="41">
+        <f>B17*(1+$B$15/100)-C20</f>
+        <v>28381.105739261562</v>
+      </c>
+      <c r="D17" s="41">
+        <f t="shared" ref="D17:K17" si="7">C17*(1+$B$15/100)-D20</f>
+        <v>26600.322052449283</v>
+      </c>
+      <c r="E17" s="41">
+        <f t="shared" si="7"/>
+        <v>24641.459996955775</v>
+      </c>
+      <c r="F17" s="41">
+        <f t="shared" si="7"/>
+        <v>22486.711735912915</v>
+      </c>
+      <c r="G17" s="41">
+        <f t="shared" si="7"/>
+        <v>20116.488648765771</v>
+      </c>
+      <c r="H17" s="41">
+        <f t="shared" si="7"/>
+        <v>17509.243252903911</v>
+      </c>
+      <c r="I17" s="41">
+        <f t="shared" si="7"/>
+        <v>14641.273317455867</v>
+      </c>
+      <c r="J17" s="41">
+        <f t="shared" si="7"/>
+        <v>11486.506388463018</v>
+      </c>
+      <c r="K17" s="41">
+        <f t="shared" si="7"/>
+        <v>8016.2627665708833</v>
+      </c>
+      <c r="L17" s="41">
+        <f t="shared" ref="L17:N17" si="8">K17*(1+$B$15/100)-L20</f>
+        <v>4198.9947824895362</v>
+      </c>
+      <c r="M17" s="41">
+        <f t="shared" si="8"/>
+        <v>5.3660187404602766E-11</v>
+      </c>
+      <c r="N17" s="84">
+        <f t="shared" si="8"/>
+        <v>-4618.8942607383779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41">
+        <f>C20-C19</f>
+        <v>1618.894260738437</v>
+      </c>
+      <c r="D18" s="41">
+        <f t="shared" ref="D18:K18" si="9">D20-D19</f>
+        <v>1780.7836868122804</v>
+      </c>
+      <c r="E18" s="41">
+        <f t="shared" si="9"/>
+        <v>1958.8620554935087</v>
+      </c>
+      <c r="F18" s="41">
+        <f t="shared" si="9"/>
+        <v>2154.7482610428592</v>
+      </c>
+      <c r="G18" s="41">
+        <f t="shared" si="9"/>
+        <v>2370.2230871471452</v>
+      </c>
+      <c r="H18" s="41">
+        <f t="shared" si="9"/>
+        <v>2607.2453958618598</v>
+      </c>
+      <c r="I18" s="41">
+        <f t="shared" si="9"/>
+        <v>2867.9699354480458</v>
+      </c>
+      <c r="J18" s="41">
+        <f t="shared" si="9"/>
+        <v>3154.7669289928499</v>
+      </c>
+      <c r="K18" s="41">
+        <f t="shared" si="9"/>
+        <v>3470.2436218921348</v>
+      </c>
+      <c r="L18" s="41">
+        <f t="shared" ref="L18" si="10">L20-L19</f>
+        <v>3817.2679840813485</v>
+      </c>
+      <c r="M18" s="41">
+        <f t="shared" ref="M18" si="11">M20-M19</f>
+        <v>4198.9947824894834</v>
+      </c>
+      <c r="N18" s="84">
+        <f t="shared" ref="N18" si="12">N20-N19</f>
+        <v>4618.8942607384315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41">
+        <f>B17*($B$15/100)</f>
+        <v>3000</v>
+      </c>
+      <c r="D19" s="41">
+        <f t="shared" ref="D19:K19" si="13">C17*($B$15/100)</f>
+        <v>2838.1105739261566</v>
+      </c>
+      <c r="E19" s="41">
+        <f t="shared" si="13"/>
+        <v>2660.0322052449283</v>
+      </c>
+      <c r="F19" s="41">
+        <f t="shared" si="13"/>
+        <v>2464.1459996955778</v>
+      </c>
+      <c r="G19" s="41">
+        <f t="shared" si="13"/>
+        <v>2248.6711735912918</v>
+      </c>
+      <c r="H19" s="41">
+        <f t="shared" si="13"/>
+        <v>2011.6488648765771</v>
+      </c>
+      <c r="I19" s="41">
+        <f t="shared" si="13"/>
+        <v>1750.9243252903912</v>
+      </c>
+      <c r="J19" s="41">
+        <f t="shared" si="13"/>
+        <v>1464.1273317455868</v>
+      </c>
+      <c r="K19" s="41">
+        <f t="shared" si="13"/>
+        <v>1148.6506388463019</v>
+      </c>
+      <c r="L19" s="41">
+        <f t="shared" ref="L19:N19" si="14">K17*($B$15/100)</f>
+        <v>801.6262766570884</v>
+      </c>
+      <c r="M19" s="41">
+        <f t="shared" si="14"/>
+        <v>419.89947824895364</v>
+      </c>
+      <c r="N19" s="84">
+        <f t="shared" si="14"/>
+        <v>5.3660187404602769E-12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57">
+        <f>$B$17*((1+$B$15/100)^$D$15)*$B$15/100/((1+$B$15/100)^$D$15-1)</f>
+        <v>4618.894260738437</v>
+      </c>
+      <c r="D20" s="57">
+        <f t="shared" ref="D20:N20" si="15">$B$17*((1+$B$15/100)^$D$15)*$B$15/100/((1+$B$15/100)^$D$15-1)</f>
+        <v>4618.894260738437</v>
+      </c>
+      <c r="E20" s="57">
+        <f t="shared" si="15"/>
+        <v>4618.894260738437</v>
+      </c>
+      <c r="F20" s="57">
+        <f t="shared" si="15"/>
+        <v>4618.894260738437</v>
+      </c>
+      <c r="G20" s="57">
+        <f t="shared" si="15"/>
+        <v>4618.894260738437</v>
+      </c>
+      <c r="H20" s="57">
+        <f t="shared" si="15"/>
+        <v>4618.894260738437</v>
+      </c>
+      <c r="I20" s="57">
+        <f t="shared" si="15"/>
+        <v>4618.894260738437</v>
+      </c>
+      <c r="J20" s="57">
+        <f t="shared" si="15"/>
+        <v>4618.894260738437</v>
+      </c>
+      <c r="K20" s="57">
+        <f t="shared" si="15"/>
+        <v>4618.894260738437</v>
+      </c>
+      <c r="L20" s="57">
+        <f t="shared" si="15"/>
+        <v>4618.894260738437</v>
+      </c>
+      <c r="M20" s="57">
+        <f t="shared" si="15"/>
+        <v>4618.894260738437</v>
+      </c>
+      <c r="N20" s="90">
+        <f t="shared" si="15"/>
+        <v>4618.894260738437</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="A1:A5" name="ABD_1"/>
+  </protectedRanges>
+  <mergeCells count="2">
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A14:N14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/计算器.xlsx
+++ b/计算器.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E7B81-FC61-48EC-850E-D26F93579364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A54A8F2-C0E7-438D-8AC6-C130DCA8F3CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="定投计算器" sheetId="2" r:id="rId1"/>
     <sheet name="本金翻倍时间" sheetId="1" r:id="rId2"/>
-    <sheet name="判断项目是否可行" sheetId="3" r:id="rId3"/>
+    <sheet name="项目可行性分析" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>一次性投入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,26 @@
   </si>
   <si>
     <t>回收周期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求内部收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.使用数据-预测-模拟分析-单变量求解，可以求得内部收益率。目标单元格：029，目标值：0，可变单元格：B25。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始待回收资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.指定《利率》和《回收周期数》以及《初始待回收资金》，可以计算出每期资金回收量。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -579,6 +599,61 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,33 +670,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -633,16 +681,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,15 +688,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,16 +1064,16 @@
       <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="85"/>
     </row>
     <row r="7" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
@@ -1279,16 +1308,16 @@
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="44" t="s">
@@ -1557,7 +1586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -1638,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <f t="shared" ref="B5:B35" si="0">A5/100+1</f>
+        <f t="shared" ref="B5:B34" si="0">A5/100+1</f>
         <v>1.01</v>
       </c>
       <c r="C5" s="5">
@@ -1646,7 +1675,7 @@
         <v>69.660716893574829</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:D35" si="1">C5*A5</f>
+        <f t="shared" ref="D5:D34" si="1">C5*A5</f>
         <v>69.660716893574829</v>
       </c>
       <c r="E5" s="4"/>
@@ -1654,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:G35" si="2">F5/100+1</f>
+        <f t="shared" ref="G5:G34" si="2">F5/100+1</f>
         <v>1.01</v>
       </c>
       <c r="H5" s="6">
@@ -1677,7 +1706,7 @@
         <v>120</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" ref="N5:N35" si="3">(H5^(M5+1)-H5)/(H5-1)</f>
+        <f t="shared" ref="N5:N34" si="3">(H5^(M5+1)-H5)/(H5-1)</f>
         <v>126.2255605149067</v>
       </c>
       <c r="O5" s="4">
@@ -1694,7 +1723,7 @@
         <v>1.02</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" ref="C6:C35" si="4">LN(2)/LN(B6)</f>
+        <f t="shared" ref="C6:C34" si="4">LN(2)/LN(B6)</f>
         <v>35.002788781146499</v>
       </c>
       <c r="D6" s="5">
@@ -1710,7 +1739,7 @@
         <v>1.02</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" ref="H6:H35" si="5">EXP(LN(G6)/12)</f>
+        <f t="shared" ref="H6:H34" si="5">EXP(LN(G6)/12)</f>
         <v>1.0016515813019202</v>
       </c>
       <c r="I6" s="4">
@@ -3246,10 +3275,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAC89A5-C1CE-4E6A-827A-245A664C28A8}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3285,552 +3314,859 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="79" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="81"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="91"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="82">
-        <v>15</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="73"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+      <c r="B10" s="73">
+        <v>26.3</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="67"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="72">
-        <v>0</v>
-      </c>
-      <c r="C9" s="72">
+      <c r="B11" s="66">
+        <v>0</v>
+      </c>
+      <c r="C11" s="66">
         <v>1</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D11" s="66">
         <v>2</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E11" s="66">
         <v>3</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F11" s="66">
         <v>4</v>
       </c>
-      <c r="G9" s="72">
+      <c r="G11" s="66">
         <v>5</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H11" s="66">
         <v>6</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I11" s="66">
         <v>7</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J11" s="66">
         <v>8</v>
       </c>
-      <c r="K9" s="72">
+      <c r="K11" s="66">
         <v>9</v>
       </c>
-      <c r="L9" s="72">
+      <c r="L11" s="66">
         <v>10</v>
       </c>
-      <c r="M9" s="72">
+      <c r="M11" s="66">
         <v>11</v>
       </c>
-      <c r="N9" s="73">
+      <c r="N11" s="67">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B12" s="63">
         <v>-500</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C12" s="63">
         <v>140</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D12" s="63">
         <v>140</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E12" s="63">
         <v>140</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F12" s="63">
         <v>140</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G12" s="63">
         <v>140</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H12" s="63">
         <v>140</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I12" s="63">
         <v>140</v>
       </c>
-      <c r="J10" s="63">
+      <c r="J12" s="63">
         <v>140</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K12" s="63">
         <v>140</v>
       </c>
-      <c r="L10" s="63">
+      <c r="L12" s="63">
         <v>140</v>
       </c>
-      <c r="M10" s="63">
+      <c r="M12" s="63">
         <v>140</v>
       </c>
-      <c r="N10" s="83">
+      <c r="N12" s="74">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="75" t="str">
-        <f>"现值（折现率 = "&amp;B8&amp;"%)"</f>
-        <v>现值（折现率 = 15%)</v>
-      </c>
-      <c r="B11" s="70">
-        <f>B10/(1+$B$8/100)^B9</f>
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="69" t="str">
+        <f>"现值（折现率 = "&amp;B10&amp;"%)"</f>
+        <v>现值（折现率 = 26.3%)</v>
+      </c>
+      <c r="B13" s="64">
+        <f t="shared" ref="B13:G13" si="0">B12/(1+$B$10/100)^B11</f>
         <v>-500</v>
       </c>
-      <c r="C11" s="70">
-        <f>C10/(1+$B$8/100)^C9</f>
-        <v>121.73913043478262</v>
-      </c>
-      <c r="D11" s="70">
-        <f>D10/(1+$B$8/100)^D9</f>
-        <v>105.86011342155011</v>
-      </c>
-      <c r="E11" s="70">
-        <f>E10/(1+$B$8/100)^E9</f>
-        <v>92.05227254047837</v>
-      </c>
-      <c r="F11" s="70">
-        <f>F10/(1+$B$8/100)^F9</f>
-        <v>80.045454383024676</v>
-      </c>
-      <c r="G11" s="70">
-        <f>G10/(1+$B$8/100)^G9</f>
-        <v>69.604742941760577</v>
-      </c>
-      <c r="H11" s="70">
-        <f t="shared" ref="H11:N11" si="0">H10/(1+$B$8/100)^H9</f>
-        <v>60.525863427617907</v>
-      </c>
-      <c r="I11" s="70">
+      <c r="C13" s="64">
+        <f>C12/(1+$B$10/100)^C11</f>
+        <v>110.84718923198734</v>
+      </c>
+      <c r="D13" s="64">
         <f t="shared" si="0"/>
-        <v>52.63118558923297</v>
-      </c>
-      <c r="J11" s="70">
+        <v>87.764995433085787</v>
+      </c>
+      <c r="E13" s="64">
         <f t="shared" si="0"/>
-        <v>45.766248338463456</v>
-      </c>
-      <c r="K11" s="70">
+        <v>69.489307547969744</v>
+      </c>
+      <c r="F13" s="64">
         <f t="shared" si="0"/>
-        <v>39.7967376856204</v>
-      </c>
-      <c r="L11" s="63"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="74">
+        <v>55.019245881211205</v>
+      </c>
+      <c r="G13" s="64">
         <f t="shared" si="0"/>
-        <v>26.167001026133256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="76" t="str">
-        <f>"累计现值（折现率 = "&amp;B8&amp;"%)"</f>
-        <v>累计现值（折现率 = 15%)</v>
-      </c>
-      <c r="B12" s="77">
-        <f>B11</f>
+        <v>43.562348282827557</v>
+      </c>
+      <c r="H13" s="64">
+        <f t="shared" ref="H13:K13" si="1">H12/(1+$B$10/100)^H11</f>
+        <v>34.49117045354518</v>
+      </c>
+      <c r="I13" s="64">
+        <f t="shared" si="1"/>
+        <v>27.308923557834664</v>
+      </c>
+      <c r="J13" s="64">
+        <f t="shared" si="1"/>
+        <v>21.622267266694113</v>
+      </c>
+      <c r="K13" s="64">
+        <f t="shared" si="1"/>
+        <v>17.119768223827489</v>
+      </c>
+      <c r="L13" s="64">
+        <f t="shared" ref="L13:N13" si="2">L12/(1+$B$10/100)^L11</f>
+        <v>13.55484419938835</v>
+      </c>
+      <c r="M13" s="64">
+        <f t="shared" si="2"/>
+        <v>10.732259856997903</v>
+      </c>
+      <c r="N13" s="68">
+        <f t="shared" si="2"/>
+        <v>8.4974345661107709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="70" t="str">
+        <f>"累计现值（折现率 = "&amp;B10&amp;"%)"</f>
+        <v>累计现值（折现率 = 26.3%)</v>
+      </c>
+      <c r="B14" s="71">
+        <f>B13</f>
         <v>-500</v>
       </c>
-      <c r="C12" s="77">
-        <f>B12+C11</f>
-        <v>-378.26086956521738</v>
-      </c>
-      <c r="D12" s="77">
-        <f t="shared" ref="D12:G12" si="1">C12+D11</f>
-        <v>-272.40075614366725</v>
-      </c>
-      <c r="E12" s="77">
-        <f t="shared" si="1"/>
-        <v>-180.34848360318887</v>
-      </c>
-      <c r="F12" s="77">
-        <f t="shared" si="1"/>
-        <v>-100.30302922016419</v>
-      </c>
-      <c r="G12" s="77">
-        <f t="shared" si="1"/>
-        <v>-30.698286278403614</v>
-      </c>
-      <c r="H12" s="77">
-        <f t="shared" ref="H12" si="2">G12+H11</f>
-        <v>29.827577149214292</v>
-      </c>
-      <c r="I12" s="77">
-        <f t="shared" ref="I12" si="3">H12+I11</f>
-        <v>82.458762738447263</v>
-      </c>
-      <c r="J12" s="77">
-        <f t="shared" ref="J12" si="4">I12+J11</f>
-        <v>128.22501107691073</v>
-      </c>
-      <c r="K12" s="77">
-        <f t="shared" ref="K12" si="5">J12+K11</f>
-        <v>168.02174876253113</v>
-      </c>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="78">
-        <f t="shared" ref="N12" si="6">K12+N11</f>
-        <v>194.18874978866438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="86" t="s">
+      <c r="C14" s="71">
+        <f>B14+C13</f>
+        <v>-389.15281076801267</v>
+      </c>
+      <c r="D14" s="71">
+        <f t="shared" ref="D14:G14" si="3">C14+D13</f>
+        <v>-301.38781533492687</v>
+      </c>
+      <c r="E14" s="71">
+        <f t="shared" si="3"/>
+        <v>-231.89850778695711</v>
+      </c>
+      <c r="F14" s="71">
+        <f t="shared" si="3"/>
+        <v>-176.87926190574592</v>
+      </c>
+      <c r="G14" s="71">
+        <f t="shared" si="3"/>
+        <v>-133.31691362291838</v>
+      </c>
+      <c r="H14" s="71">
+        <f t="shared" ref="H14" si="4">G14+H13</f>
+        <v>-98.825743169373197</v>
+      </c>
+      <c r="I14" s="71">
+        <f t="shared" ref="I14" si="5">H14+I13</f>
+        <v>-71.516819611538537</v>
+      </c>
+      <c r="J14" s="71">
+        <f t="shared" ref="J14" si="6">I14+J13</f>
+        <v>-49.894552344844428</v>
+      </c>
+      <c r="K14" s="71">
+        <f t="shared" ref="K14" si="7">J14+K13</f>
+        <v>-32.774784121016936</v>
+      </c>
+      <c r="L14" s="71">
+        <f t="shared" ref="L14" si="8">K14+L13</f>
+        <v>-19.219939921628587</v>
+      </c>
+      <c r="M14" s="71">
+        <f t="shared" ref="M14" si="9">L14+M13</f>
+        <v>-8.487680064630684</v>
+      </c>
+      <c r="N14" s="72">
+        <f t="shared" ref="N14" si="10">M14+N13</f>
+        <v>9.7545014800868302E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="88"/>
-    </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="94"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B17" s="41">
         <v>10</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="75"/>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="89">
+      <c r="B18" s="77">
+        <v>5</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="75"/>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="41">
+        <v>20000</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="75"/>
+    </row>
+    <row r="20" spans="1:15" s="76" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="77">
+        <v>0</v>
+      </c>
+      <c r="C20" s="77">
+        <v>1</v>
+      </c>
+      <c r="D20" s="77">
+        <v>2</v>
+      </c>
+      <c r="E20" s="77">
+        <v>3</v>
+      </c>
+      <c r="F20" s="77">
+        <v>4</v>
+      </c>
+      <c r="G20" s="77">
+        <v>5</v>
+      </c>
+      <c r="H20" s="77">
+        <v>6</v>
+      </c>
+      <c r="I20" s="77">
+        <v>7</v>
+      </c>
+      <c r="J20" s="77">
+        <v>8</v>
+      </c>
+      <c r="K20" s="77">
+        <v>9</v>
+      </c>
+      <c r="L20" s="66">
+        <v>10</v>
+      </c>
+      <c r="M20" s="66">
         <v>11</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="84"/>
-    </row>
-    <row r="16" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="89">
-        <v>0</v>
-      </c>
-      <c r="C16" s="89">
+      <c r="N20" s="67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="37">
+        <f>B19</f>
+        <v>20000</v>
+      </c>
+      <c r="C21" s="41">
+        <f>B21*(1+$B$17/100)-C24</f>
+        <v>16724.050384105096</v>
+      </c>
+      <c r="D21" s="41">
+        <f t="shared" ref="D21:K21" si="11">C21*(1+$B$17/100)-D24</f>
+        <v>13120.505806620702</v>
+      </c>
+      <c r="E21" s="41">
+        <f t="shared" si="11"/>
+        <v>9156.6067713878692</v>
+      </c>
+      <c r="F21" s="41">
+        <f t="shared" si="11"/>
+        <v>4796.3178326317511</v>
+      </c>
+      <c r="G21" s="41">
+        <f t="shared" si="11"/>
+        <v>2.1827872842550278E-11</v>
+      </c>
+      <c r="H21" s="41">
+        <f t="shared" si="11"/>
+        <v>-5275.9496158948814</v>
+      </c>
+      <c r="I21" s="41">
+        <f t="shared" si="11"/>
+        <v>-11079.494193379276</v>
+      </c>
+      <c r="J21" s="41">
+        <f t="shared" si="11"/>
+        <v>-17463.393228612109</v>
+      </c>
+      <c r="K21" s="41">
+        <f t="shared" si="11"/>
+        <v>-24485.682167368224</v>
+      </c>
+      <c r="L21" s="41">
+        <f t="shared" ref="L21:N21" si="12">K21*(1+$B$17/100)-L24</f>
+        <v>-32210.199999999953</v>
+      </c>
+      <c r="M21" s="41">
+        <f t="shared" si="12"/>
+        <v>-40707.169615894854</v>
+      </c>
+      <c r="N21" s="75">
+        <f t="shared" si="12"/>
+        <v>-50053.836193379248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41">
+        <f>C24-C23</f>
+        <v>3275.949615894905</v>
+      </c>
+      <c r="D22" s="41">
+        <f t="shared" ref="D22:K22" si="13">D24-D23</f>
+        <v>3603.5445774843956</v>
+      </c>
+      <c r="E22" s="41">
+        <f t="shared" si="13"/>
+        <v>3963.8990352328346</v>
+      </c>
+      <c r="F22" s="41">
+        <f t="shared" si="13"/>
+        <v>4360.2889387561181</v>
+      </c>
+      <c r="G22" s="41">
+        <f t="shared" si="13"/>
+        <v>4796.3178326317302</v>
+      </c>
+      <c r="H22" s="41">
+        <f t="shared" si="13"/>
+        <v>5275.9496158949032</v>
+      </c>
+      <c r="I22" s="41">
+        <f t="shared" si="13"/>
+        <v>5803.5445774843929</v>
+      </c>
+      <c r="J22" s="41">
+        <f t="shared" si="13"/>
+        <v>6383.8990352328328</v>
+      </c>
+      <c r="K22" s="41">
+        <f t="shared" si="13"/>
+        <v>7022.2889387561163</v>
+      </c>
+      <c r="L22" s="41">
+        <f t="shared" ref="L22" si="14">L24-L23</f>
+        <v>7724.5178326317273</v>
+      </c>
+      <c r="M22" s="41">
+        <f t="shared" ref="M22" si="15">M24-M23</f>
+        <v>8496.9696158949009</v>
+      </c>
+      <c r="N22" s="75">
+        <f t="shared" ref="N22" si="16">N24-N23</f>
+        <v>9346.6665774843896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41">
+        <f>B21*($B$17/100)</f>
+        <v>2000</v>
+      </c>
+      <c r="D23" s="41">
+        <f t="shared" ref="D23:K23" si="17">C21*($B$17/100)</f>
+        <v>1672.4050384105096</v>
+      </c>
+      <c r="E23" s="41">
+        <f t="shared" si="17"/>
+        <v>1312.0505806620704</v>
+      </c>
+      <c r="F23" s="41">
+        <f t="shared" si="17"/>
+        <v>915.66067713878692</v>
+      </c>
+      <c r="G23" s="41">
+        <f t="shared" si="17"/>
+        <v>479.63178326317512</v>
+      </c>
+      <c r="H23" s="41">
+        <f t="shared" si="17"/>
+        <v>2.1827872842550281E-12</v>
+      </c>
+      <c r="I23" s="41">
+        <f t="shared" si="17"/>
+        <v>-527.59496158948821</v>
+      </c>
+      <c r="J23" s="41">
+        <f t="shared" si="17"/>
+        <v>-1107.9494193379276</v>
+      </c>
+      <c r="K23" s="41">
+        <f t="shared" si="17"/>
+        <v>-1746.339322861211</v>
+      </c>
+      <c r="L23" s="41">
+        <f t="shared" ref="L23:N23" si="18">K21*($B$17/100)</f>
+        <v>-2448.5682167368227</v>
+      </c>
+      <c r="M23" s="41">
+        <f t="shared" si="18"/>
+        <v>-3221.0199999999954</v>
+      </c>
+      <c r="N23" s="75">
+        <f t="shared" si="18"/>
+        <v>-4070.7169615894854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57">
+        <f t="shared" ref="C24:N24" si="19">$B$21*((1+$B$17/100)^$B$18)*$B$17/100/((1+$B$17/100)^$B$18-1)</f>
+        <v>5275.949615894905</v>
+      </c>
+      <c r="D24" s="57">
+        <f t="shared" si="19"/>
+        <v>5275.949615894905</v>
+      </c>
+      <c r="E24" s="57">
+        <f t="shared" si="19"/>
+        <v>5275.949615894905</v>
+      </c>
+      <c r="F24" s="57">
+        <f t="shared" si="19"/>
+        <v>5275.949615894905</v>
+      </c>
+      <c r="G24" s="57">
+        <f t="shared" si="19"/>
+        <v>5275.949615894905</v>
+      </c>
+      <c r="H24" s="57">
+        <f t="shared" si="19"/>
+        <v>5275.949615894905</v>
+      </c>
+      <c r="I24" s="57">
+        <f t="shared" si="19"/>
+        <v>5275.949615894905</v>
+      </c>
+      <c r="J24" s="57">
+        <f t="shared" si="19"/>
+        <v>5275.949615894905</v>
+      </c>
+      <c r="K24" s="57">
+        <f t="shared" si="19"/>
+        <v>5275.949615894905</v>
+      </c>
+      <c r="L24" s="57">
+        <f t="shared" si="19"/>
+        <v>5275.949615894905</v>
+      </c>
+      <c r="M24" s="57">
+        <f t="shared" si="19"/>
+        <v>5275.949615894905</v>
+      </c>
+      <c r="N24" s="78">
+        <f t="shared" si="19"/>
+        <v>5275.949615894905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="80"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="91"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="73">
+        <v>12.170634400811483</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="67"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="66">
+        <v>0</v>
+      </c>
+      <c r="C29" s="66">
         <v>1</v>
       </c>
-      <c r="D16" s="89">
+      <c r="D29" s="66">
         <v>2</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E29" s="66">
         <v>3</v>
       </c>
-      <c r="F16" s="89">
+      <c r="F29" s="66">
         <v>4</v>
       </c>
-      <c r="G16" s="89">
+      <c r="G29" s="66">
         <v>5</v>
       </c>
-      <c r="H16" s="89">
+      <c r="H29" s="66">
         <v>6</v>
       </c>
-      <c r="I16" s="89">
+      <c r="I29" s="66">
         <v>7</v>
       </c>
-      <c r="J16" s="89">
+      <c r="J29" s="66">
         <v>8</v>
       </c>
-      <c r="K16" s="89">
+      <c r="K29" s="66">
         <v>9</v>
       </c>
-      <c r="L16" s="72">
+      <c r="L29" s="66">
         <v>10</v>
       </c>
-      <c r="M16" s="72">
+      <c r="M29" s="66">
         <v>11</v>
       </c>
-      <c r="N16" s="73">
+      <c r="N29" s="67">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="41">
-        <v>30000</v>
-      </c>
-      <c r="C17" s="41">
-        <f>B17*(1+$B$15/100)-C20</f>
-        <v>28381.105739261562</v>
-      </c>
-      <c r="D17" s="41">
-        <f t="shared" ref="D17:K17" si="7">C17*(1+$B$15/100)-D20</f>
-        <v>26600.322052449283</v>
-      </c>
-      <c r="E17" s="41">
-        <f t="shared" si="7"/>
-        <v>24641.459996955775</v>
-      </c>
-      <c r="F17" s="41">
-        <f t="shared" si="7"/>
-        <v>22486.711735912915</v>
-      </c>
-      <c r="G17" s="41">
-        <f t="shared" si="7"/>
-        <v>20116.488648765771</v>
-      </c>
-      <c r="H17" s="41">
-        <f t="shared" si="7"/>
-        <v>17509.243252903911</v>
-      </c>
-      <c r="I17" s="41">
-        <f t="shared" si="7"/>
-        <v>14641.273317455867</v>
-      </c>
-      <c r="J17" s="41">
-        <f t="shared" si="7"/>
-        <v>11486.506388463018</v>
-      </c>
-      <c r="K17" s="41">
-        <f t="shared" si="7"/>
-        <v>8016.2627665708833</v>
-      </c>
-      <c r="L17" s="41">
-        <f t="shared" ref="L17:N17" si="8">K17*(1+$B$15/100)-L20</f>
-        <v>4198.9947824895362</v>
-      </c>
-      <c r="M17" s="41">
-        <f t="shared" si="8"/>
-        <v>5.3660187404602766E-11</v>
-      </c>
-      <c r="N17" s="84">
-        <f t="shared" si="8"/>
-        <v>-4618.8942607383779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41">
-        <f>C20-C19</f>
-        <v>1618.894260738437</v>
-      </c>
-      <c r="D18" s="41">
-        <f t="shared" ref="D18:K18" si="9">D20-D19</f>
-        <v>1780.7836868122804</v>
-      </c>
-      <c r="E18" s="41">
-        <f t="shared" si="9"/>
-        <v>1958.8620554935087</v>
-      </c>
-      <c r="F18" s="41">
-        <f t="shared" si="9"/>
-        <v>2154.7482610428592</v>
-      </c>
-      <c r="G18" s="41">
-        <f t="shared" si="9"/>
-        <v>2370.2230871471452</v>
-      </c>
-      <c r="H18" s="41">
-        <f t="shared" si="9"/>
-        <v>2607.2453958618598</v>
-      </c>
-      <c r="I18" s="41">
-        <f t="shared" si="9"/>
-        <v>2867.9699354480458</v>
-      </c>
-      <c r="J18" s="41">
-        <f t="shared" si="9"/>
-        <v>3154.7669289928499</v>
-      </c>
-      <c r="K18" s="41">
-        <f t="shared" si="9"/>
-        <v>3470.2436218921348</v>
-      </c>
-      <c r="L18" s="41">
-        <f t="shared" ref="L18" si="10">L20-L19</f>
-        <v>3817.2679840813485</v>
-      </c>
-      <c r="M18" s="41">
-        <f t="shared" ref="M18" si="11">M20-M19</f>
-        <v>4198.9947824894834</v>
-      </c>
-      <c r="N18" s="84">
-        <f t="shared" ref="N18" si="12">N20-N19</f>
-        <v>4618.8942607384315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41">
-        <f>B17*($B$15/100)</f>
-        <v>3000</v>
-      </c>
-      <c r="D19" s="41">
-        <f t="shared" ref="D19:K19" si="13">C17*($B$15/100)</f>
-        <v>2838.1105739261566</v>
-      </c>
-      <c r="E19" s="41">
-        <f t="shared" si="13"/>
-        <v>2660.0322052449283</v>
-      </c>
-      <c r="F19" s="41">
-        <f t="shared" si="13"/>
-        <v>2464.1459996955778</v>
-      </c>
-      <c r="G19" s="41">
-        <f t="shared" si="13"/>
-        <v>2248.6711735912918</v>
-      </c>
-      <c r="H19" s="41">
-        <f t="shared" si="13"/>
-        <v>2011.6488648765771</v>
-      </c>
-      <c r="I19" s="41">
-        <f t="shared" si="13"/>
-        <v>1750.9243252903912</v>
-      </c>
-      <c r="J19" s="41">
-        <f t="shared" si="13"/>
-        <v>1464.1273317455868</v>
-      </c>
-      <c r="K19" s="41">
-        <f t="shared" si="13"/>
-        <v>1148.6506388463019</v>
-      </c>
-      <c r="L19" s="41">
-        <f t="shared" ref="L19:N19" si="14">K17*($B$15/100)</f>
-        <v>801.6262766570884</v>
-      </c>
-      <c r="M19" s="41">
-        <f t="shared" si="14"/>
-        <v>419.89947824895364</v>
-      </c>
-      <c r="N19" s="84">
-        <f t="shared" si="14"/>
-        <v>5.3660187404602769E-12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57">
-        <f>$B$17*((1+$B$15/100)^$D$15)*$B$15/100/((1+$B$15/100)^$D$15-1)</f>
-        <v>4618.894260738437</v>
-      </c>
-      <c r="D20" s="57">
-        <f t="shared" ref="D20:N20" si="15">$B$17*((1+$B$15/100)^$D$15)*$B$15/100/((1+$B$15/100)^$D$15-1)</f>
-        <v>4618.894260738437</v>
-      </c>
-      <c r="E20" s="57">
-        <f t="shared" si="15"/>
-        <v>4618.894260738437</v>
-      </c>
-      <c r="F20" s="57">
-        <f t="shared" si="15"/>
-        <v>4618.894260738437</v>
-      </c>
-      <c r="G20" s="57">
-        <f t="shared" si="15"/>
-        <v>4618.894260738437</v>
-      </c>
-      <c r="H20" s="57">
-        <f t="shared" si="15"/>
-        <v>4618.894260738437</v>
-      </c>
-      <c r="I20" s="57">
-        <f t="shared" si="15"/>
-        <v>4618.894260738437</v>
-      </c>
-      <c r="J20" s="57">
-        <f t="shared" si="15"/>
-        <v>4618.894260738437</v>
-      </c>
-      <c r="K20" s="57">
-        <f t="shared" si="15"/>
-        <v>4618.894260738437</v>
-      </c>
-      <c r="L20" s="57">
-        <f t="shared" si="15"/>
-        <v>4618.894260738437</v>
-      </c>
-      <c r="M20" s="57">
-        <f t="shared" si="15"/>
-        <v>4618.894260738437</v>
-      </c>
-      <c r="N20" s="90">
-        <f t="shared" si="15"/>
-        <v>4618.894260738437</v>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="63">
+        <v>-500</v>
+      </c>
+      <c r="C30" s="63">
+        <v>140</v>
+      </c>
+      <c r="D30" s="63">
+        <v>140</v>
+      </c>
+      <c r="E30" s="63">
+        <v>140</v>
+      </c>
+      <c r="F30" s="63">
+        <v>140</v>
+      </c>
+      <c r="G30" s="63">
+        <v>-500</v>
+      </c>
+      <c r="H30" s="63">
+        <v>140</v>
+      </c>
+      <c r="I30" s="63">
+        <v>140</v>
+      </c>
+      <c r="J30" s="63">
+        <v>140</v>
+      </c>
+      <c r="K30" s="63">
+        <v>140</v>
+      </c>
+      <c r="L30" s="63">
+        <v>140</v>
+      </c>
+      <c r="M30" s="63">
+        <v>140</v>
+      </c>
+      <c r="N30" s="74">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="69" t="str">
+        <f>"现值（折现率 = "&amp;B28&amp;"%)"</f>
+        <v>现值（折现率 = 12.1706344008115%)</v>
+      </c>
+      <c r="B31" s="64">
+        <f>B30/(1+$B$28/100)^B29</f>
+        <v>-500</v>
+      </c>
+      <c r="C31" s="64">
+        <f t="shared" ref="C31:N31" si="20">C30/(1+$B$28/100)^C29</f>
+        <v>124.80984951885696</v>
+      </c>
+      <c r="D31" s="64">
+        <f t="shared" si="20"/>
+        <v>111.2678466922837</v>
+      </c>
+      <c r="E31" s="64">
+        <f t="shared" si="20"/>
+        <v>99.195165728222676</v>
+      </c>
+      <c r="F31" s="64">
+        <f t="shared" si="20"/>
+        <v>88.432383625268201</v>
+      </c>
+      <c r="G31" s="64">
+        <f t="shared" si="20"/>
+        <v>-281.56205338937639</v>
+      </c>
+      <c r="H31" s="64">
+        <f t="shared" si="20"/>
+        <v>70.283435027496878</v>
+      </c>
+      <c r="I31" s="64">
+        <f t="shared" si="20"/>
+        <v>62.657606781787457</v>
+      </c>
+      <c r="J31" s="64">
+        <f t="shared" si="20"/>
+        <v>55.859189097475749</v>
+      </c>
+      <c r="K31" s="64">
+        <f t="shared" si="20"/>
+        <v>49.798407039295164</v>
+      </c>
+      <c r="L31" s="64">
+        <f t="shared" si="20"/>
+        <v>44.395226348951546</v>
+      </c>
+      <c r="M31" s="64">
+        <f t="shared" si="20"/>
+        <v>39.578296571201683</v>
+      </c>
+      <c r="N31" s="68">
+        <f t="shared" si="20"/>
+        <v>35.284008851888387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="70" t="str">
+        <f>"累计现值（折现率 = "&amp;B28&amp;"%)"</f>
+        <v>累计现值（折现率 = 12.1706344008115%)</v>
+      </c>
+      <c r="B32" s="71">
+        <f>B31</f>
+        <v>-500</v>
+      </c>
+      <c r="C32" s="71">
+        <f>B32+C31</f>
+        <v>-375.19015048114306</v>
+      </c>
+      <c r="D32" s="71">
+        <f t="shared" ref="D32" si="21">C32+D31</f>
+        <v>-263.92230378885938</v>
+      </c>
+      <c r="E32" s="71">
+        <f t="shared" ref="E32" si="22">D32+E31</f>
+        <v>-164.72713806063672</v>
+      </c>
+      <c r="F32" s="71">
+        <f t="shared" ref="F32" si="23">E32+F31</f>
+        <v>-76.294754435368517</v>
+      </c>
+      <c r="G32" s="71">
+        <f t="shared" ref="G32" si="24">F32+G31</f>
+        <v>-357.85680782474492</v>
+      </c>
+      <c r="H32" s="71">
+        <f t="shared" ref="H32" si="25">G32+H31</f>
+        <v>-287.57337279724806</v>
+      </c>
+      <c r="I32" s="71">
+        <f t="shared" ref="I32" si="26">H32+I31</f>
+        <v>-224.9157660154606</v>
+      </c>
+      <c r="J32" s="71">
+        <f t="shared" ref="J32" si="27">I32+J31</f>
+        <v>-169.05657691798484</v>
+      </c>
+      <c r="K32" s="71">
+        <f t="shared" ref="K32" si="28">J32+K31</f>
+        <v>-119.25816987868967</v>
+      </c>
+      <c r="L32" s="71">
+        <f t="shared" ref="L32" si="29">K32+L31</f>
+        <v>-74.862943529738118</v>
+      </c>
+      <c r="M32" s="71">
+        <f t="shared" ref="M32" si="30">L32+M31</f>
+        <v>-35.284646958536435</v>
+      </c>
+      <c r="N32" s="72">
+        <f>M32+N31</f>
+        <v>-6.3810664804719863E-4</v>
+      </c>
+      <c r="O32" s="2">
+        <f>M32+N31</f>
+        <v>-6.3810664804719863E-4</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A1:A5" name="ABD_1"/>
+    <protectedRange sqref="A1:A7" name="ABD_1"/>
   </protectedRanges>
-  <mergeCells count="2">
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A14:N14"/>
+  <mergeCells count="3">
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A27:N27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/计算器.xlsx
+++ b/计算器.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A54A8F2-C0E7-438D-8AC6-C130DCA8F3CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA75D72-BB49-4872-854A-0AC124B22B7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,15 +196,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.使用数据-预测-模拟分析-单变量求解，可以求得内部收益率。目标单元格：029，目标值：0，可变单元格：B25。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初始待回收资金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5.指定《利率》和《回收周期数》以及《初始待回收资金》，可以计算出每期资金回收量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.输入现金流，自动求解内部收益率。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -690,6 +690,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3275,10 +3276,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAC89A5-C1CE-4E6A-827A-245A664C28A8}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3314,12 +3315,12 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3626,7 +3627,7 @@
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="41">
         <v>20000</v>
@@ -3932,8 +3933,9 @@
       <c r="A28" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="73">
-        <v>12.170634400811483</v>
+      <c r="B28" s="63">
+        <f>100*IRR(B30:N30)</f>
+        <v>12.170607379860087</v>
       </c>
       <c r="C28" s="66"/>
       <c r="D28" s="66"/>
@@ -4039,7 +4041,7 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="69" t="str">
         <f>"现值（折现率 = "&amp;B28&amp;"%)"</f>
-        <v>现值（折现率 = 12.1706344008115%)</v>
+        <v>现值（折现率 = 12.1706073798601%)</v>
       </c>
       <c r="B31" s="64">
         <f>B30/(1+$B$28/100)^B29</f>
@@ -4047,57 +4049,57 @@
       </c>
       <c r="C31" s="64">
         <f t="shared" ref="C31:N31" si="20">C30/(1+$B$28/100)^C29</f>
-        <v>124.80984951885696</v>
+        <v>124.80987958449496</v>
       </c>
       <c r="D31" s="64">
         <f t="shared" si="20"/>
-        <v>111.2678466922837</v>
+        <v>111.26790029925809</v>
       </c>
       <c r="E31" s="64">
         <f t="shared" si="20"/>
-        <v>99.195165728222676</v>
+        <v>99.195237414071386</v>
       </c>
       <c r="F31" s="64">
         <f t="shared" si="20"/>
-        <v>88.432383625268201</v>
+        <v>88.432468835754563</v>
       </c>
       <c r="G31" s="64">
         <f t="shared" si="20"/>
-        <v>-281.56205338937639</v>
+        <v>-281.56239251913598</v>
       </c>
       <c r="H31" s="64">
         <f t="shared" si="20"/>
-        <v>70.283435027496878</v>
+        <v>70.283536611671337</v>
       </c>
       <c r="I31" s="64">
         <f t="shared" si="20"/>
-        <v>62.657606781787457</v>
+        <v>62.657712437679599</v>
       </c>
       <c r="J31" s="64">
         <f t="shared" si="20"/>
-        <v>55.859189097475749</v>
+        <v>55.859296745619311</v>
       </c>
       <c r="K31" s="64">
         <f t="shared" si="20"/>
-        <v>49.798407039295164</v>
+        <v>49.798515003537986</v>
       </c>
       <c r="L31" s="64">
         <f t="shared" si="20"/>
-        <v>44.395226348951546</v>
+        <v>44.395333293416009</v>
       </c>
       <c r="M31" s="64">
         <f t="shared" si="20"/>
-        <v>39.578296571201683</v>
+        <v>39.578401446176947</v>
       </c>
       <c r="N31" s="68">
         <f t="shared" si="20"/>
-        <v>35.284008851888387</v>
+        <v>35.284110847458187</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="70" t="str">
         <f>"累计现值（折现率 = "&amp;B28&amp;"%)"</f>
-        <v>累计现值（折现率 = 12.1706344008115%)</v>
+        <v>累计现值（折现率 = 12.1706073798601%)</v>
       </c>
       <c r="B32" s="71">
         <f>B31</f>
@@ -4105,56 +4107,56 @@
       </c>
       <c r="C32" s="71">
         <f>B32+C31</f>
-        <v>-375.19015048114306</v>
+        <v>-375.19012041550502</v>
       </c>
       <c r="D32" s="71">
         <f t="shared" ref="D32" si="21">C32+D31</f>
-        <v>-263.92230378885938</v>
+        <v>-263.92222011624693</v>
       </c>
       <c r="E32" s="71">
         <f t="shared" ref="E32" si="22">D32+E31</f>
-        <v>-164.72713806063672</v>
+        <v>-164.72698270217555</v>
       </c>
       <c r="F32" s="71">
         <f t="shared" ref="F32" si="23">E32+F31</f>
-        <v>-76.294754435368517</v>
+        <v>-76.294513866420985</v>
       </c>
       <c r="G32" s="71">
         <f t="shared" ref="G32" si="24">F32+G31</f>
-        <v>-357.85680782474492</v>
+        <v>-357.85690638555695</v>
       </c>
       <c r="H32" s="71">
         <f t="shared" ref="H32" si="25">G32+H31</f>
-        <v>-287.57337279724806</v>
+        <v>-287.57336977388559</v>
       </c>
       <c r="I32" s="71">
         <f t="shared" ref="I32" si="26">H32+I31</f>
-        <v>-224.9157660154606</v>
+        <v>-224.91565733620598</v>
       </c>
       <c r="J32" s="71">
         <f t="shared" ref="J32" si="27">I32+J31</f>
-        <v>-169.05657691798484</v>
+        <v>-169.05636059058668</v>
       </c>
       <c r="K32" s="71">
         <f t="shared" ref="K32" si="28">J32+K31</f>
-        <v>-119.25816987868967</v>
+        <v>-119.25784558704869</v>
       </c>
       <c r="L32" s="71">
         <f t="shared" ref="L32" si="29">K32+L31</f>
-        <v>-74.862943529738118</v>
+        <v>-74.862512293632676</v>
       </c>
       <c r="M32" s="71">
         <f t="shared" ref="M32" si="30">L32+M31</f>
-        <v>-35.284646958536435</v>
+        <v>-35.284110847455729</v>
       </c>
       <c r="N32" s="72">
         <f>M32+N31</f>
-        <v>-6.3810664804719863E-4</v>
-      </c>
-      <c r="O32" s="2">
-        <f>M32+N31</f>
-        <v>-6.3810664804719863E-4</v>
-      </c>
+        <v>2.4584778657299466E-12</v>
+      </c>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="95"/>
     </row>
   </sheetData>
   <protectedRanges>
